--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-mdrd.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-mdrd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7182" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7182" uniqueCount="776">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -483,7 +483,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -507,10 +511,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -741,7 +741,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1263,7 +1263,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1341,7 +1341,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1431,25 +1431,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1460,22 +1441,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1516,30 +1481,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2865,15 +2814,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2884,28 +2833,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4086,7 +4035,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -4112,13 +4061,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -4140,13 +4089,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -4206,7 +4155,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -6584,7 +6533,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>146</v>
@@ -6704,7 +6653,7 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>146</v>
@@ -6824,7 +6773,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>146</v>
@@ -6884,7 +6833,7 @@
         <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6944,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>146</v>
@@ -10712,7 +10661,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -11689,19 +11638,19 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>429</v>
@@ -11762,39 +11711,39 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11813,19 +11762,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>429</v>
@@ -11886,39 +11835,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11940,7 +11889,7 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>426</v>
@@ -12036,13 +11985,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -12064,7 +12013,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>426</v>
@@ -12160,13 +12109,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -12188,7 +12137,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>426</v>
@@ -12284,13 +12233,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -12309,19 +12258,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>429</v>
@@ -12382,39 +12331,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12436,7 +12385,7 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>426</v>
@@ -12477,7 +12426,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12530,10 +12479,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12559,16 +12508,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12596,10 +12545,10 @@
         <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12617,7 +12566,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12626,7 +12575,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12641,7 +12590,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12652,14 +12601,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12681,16 +12630,16 @@
         <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12718,10 +12667,10 @@
         <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12739,7 +12688,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12757,27 +12706,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12800,19 +12749,19 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12861,7 +12810,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12882,10 +12831,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12896,10 +12845,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12925,13 +12874,13 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12957,13 +12906,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12981,7 +12930,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12999,27 +12948,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13045,16 +12994,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -13064,7 +13013,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -13083,7 +13032,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -13101,7 +13050,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13122,10 +13071,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -13136,10 +13085,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13162,16 +13111,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13221,7 +13170,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13239,27 +13188,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13282,16 +13231,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13341,7 +13290,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13359,27 +13308,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13402,19 +13351,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13463,7 +13412,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13475,7 +13424,7 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13484,10 +13433,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13498,10 +13447,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13616,10 +13565,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13736,14 +13685,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13765,10 +13714,10 @@
         <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>170</v>
@@ -13823,7 +13772,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13858,10 +13807,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13884,13 +13833,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13941,7 +13890,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13950,7 +13899,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13962,10 +13911,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13976,10 +13925,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14002,13 +13951,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -14059,7 +14008,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14068,7 +14017,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -14080,10 +14029,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -14094,10 +14043,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14123,16 +14072,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -14160,10 +14109,10 @@
         <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -14181,7 +14130,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14199,13 +14148,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -14216,10 +14165,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14245,16 +14194,16 @@
         <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -14279,13 +14228,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -14303,7 +14252,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -14321,13 +14270,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -14338,10 +14287,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14364,17 +14313,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14423,7 +14372,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14447,7 +14396,7 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14458,10 +14407,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14487,10 +14436,10 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14541,7 +14490,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14562,10 +14511,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14576,10 +14525,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14602,16 +14551,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14661,7 +14610,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14682,10 +14631,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14696,10 +14645,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14722,16 +14671,16 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14781,7 +14730,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14802,10 +14751,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14816,10 +14765,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14827,10 +14776,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>96</v>
@@ -14842,19 +14791,19 @@
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14891,19 +14840,19 @@
         <v>84</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14924,10 +14873,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14938,10 +14887,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15056,10 +15005,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15172,10 +15121,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>229</v>
@@ -15206,7 +15155,7 @@
         <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -15266,7 +15215,7 @@
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>146</v>
@@ -15292,10 +15241,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15410,10 +15359,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15528,10 +15477,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15648,10 +15597,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15766,14 +15715,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15795,10 +15744,10 @@
         <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>170</v>
@@ -15853,7 +15802,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15888,10 +15837,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15917,13 +15866,13 @@
         <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>314</v>
@@ -15951,13 +15900,13 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
@@ -15975,7 +15924,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>95</v>
@@ -15993,7 +15942,7 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>318</v>
@@ -16010,10 +15959,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16039,13 +15988,13 @@
         <v>425</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>429</v>
@@ -16095,7 +16044,7 @@
         <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -16113,7 +16062,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -16130,10 +16079,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>437</v>
@@ -16161,13 +16110,13 @@
         <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>429</v>
@@ -16219,7 +16168,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -16237,7 +16186,7 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>433</v>
@@ -16254,10 +16203,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>439</v>
@@ -16285,13 +16234,13 @@
         <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>429</v>
@@ -16343,7 +16292,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -16361,7 +16310,7 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>433</v>
@@ -16378,10 +16327,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>442</v>
@@ -16403,19 +16352,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>444</v>
+        <v>627</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>446</v>
+        <v>628</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>429</v>
@@ -16467,7 +16416,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16476,39 +16425,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16527,19 +16476,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>455</v>
+        <v>628</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>429</v>
@@ -16591,7 +16540,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16600,39 +16549,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16654,16 +16603,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>429</v>
@@ -16715,7 +16664,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16733,7 +16682,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16750,13 +16699,13 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16778,16 +16727,16 @@
         <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>429</v>
@@ -16839,7 +16788,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16857,7 +16806,7 @@
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>433</v>
@@ -16874,13 +16823,13 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16902,16 +16851,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>429</v>
@@ -16963,7 +16912,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16981,7 +16930,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16998,13 +16947,13 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
@@ -17023,19 +16972,19 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>470</v>
+        <v>627</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>472</v>
+        <v>628</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>429</v>
@@ -17087,7 +17036,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -17096,39 +17045,39 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>84</v>
@@ -17150,16 +17099,16 @@
         <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>429</v>
@@ -17191,7 +17140,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -17209,7 +17158,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -17227,7 +17176,7 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>433</v>
@@ -17244,10 +17193,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17273,16 +17222,16 @@
         <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -17310,10 +17259,10 @@
         <v>344</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -17331,7 +17280,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -17340,7 +17289,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -17355,7 +17304,7 @@
         <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -17366,14 +17315,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17395,16 +17344,16 @@
         <v>284</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
@@ -17432,10 +17381,10 @@
         <v>344</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
@@ -17453,7 +17402,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17471,27 +17420,27 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17517,16 +17466,16 @@
         <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -17575,7 +17524,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17596,10 +17545,10 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>
@@ -17610,13 +17559,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>84</v>
@@ -17638,19 +17587,19 @@
         <v>96</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>84</v>
@@ -17699,7 +17648,7 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
@@ -17720,10 +17669,10 @@
         <v>84</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>84</v>
@@ -17734,10 +17683,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17852,10 +17801,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17968,10 +17917,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>229</v>
@@ -18062,7 +18011,7 @@
         <v>83</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>146</v>
@@ -18088,10 +18037,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18206,10 +18155,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18324,10 +18273,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18444,10 +18393,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18562,14 +18511,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -18591,10 +18540,10 @@
         <v>140</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>170</v>
@@ -18649,7 +18598,7 @@
         <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>82</v>
@@ -18684,10 +18633,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18713,13 +18662,13 @@
         <v>284</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>314</v>
@@ -18732,7 +18681,7 @@
         <v>84</v>
       </c>
       <c r="S132" t="s" s="2">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="T132" t="s" s="2">
         <v>84</v>
@@ -18747,13 +18696,13 @@
         <v>84</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>84</v>
@@ -18771,7 +18720,7 @@
         <v>84</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>95</v>
@@ -18789,7 +18738,7 @@
         <v>84</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>318</v>
@@ -18806,10 +18755,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18835,13 +18784,13 @@
         <v>425</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>429</v>
@@ -18888,10 +18837,10 @@
         <v>84</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>82</v>
@@ -18909,7 +18858,7 @@
         <v>84</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>433</v>
@@ -18926,13 +18875,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>84</v>
@@ -18951,19 +18900,19 @@
         <v>84</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>472</v>
+        <v>628</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>429</v>
@@ -19015,7 +18964,7 @@
         <v>84</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>82</v>
@@ -19024,36 +18973,36 @@
         <v>95</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19168,10 +19117,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19288,13 +19237,13 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>84</v>
@@ -19316,16 +19265,16 @@
         <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -19399,7 +19348,7 @@
         <v>84</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>84</v>
@@ -19410,13 +19359,13 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>84</v>
@@ -19438,16 +19387,16 @@
         <v>84</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -19521,7 +19470,7 @@
         <v>84</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>84</v>
@@ -19532,10 +19481,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19558,19 +19507,19 @@
         <v>96</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>84</v>
@@ -19619,7 +19568,7 @@
         <v>84</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>82</v>
@@ -19640,10 +19589,10 @@
         <v>84</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>84</v>
@@ -19654,10 +19603,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19683,20 +19632,20 @@
         <v>115</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q140" t="s" s="2">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>84</v>
@@ -19720,10 +19669,10 @@
         <v>275</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>84</v>
@@ -19741,7 +19690,7 @@
         <v>84</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>82</v>
@@ -19762,10 +19711,10 @@
         <v>84</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>84</v>
@@ -19776,10 +19725,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19805,14 +19754,14 @@
         <v>160</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>84</v>
@@ -19861,7 +19810,7 @@
         <v>84</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>82</v>
@@ -19882,10 +19831,10 @@
         <v>84</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>84</v>
@@ -19896,10 +19845,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19925,21 +19874,21 @@
         <v>109</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>84</v>
@@ -19981,7 +19930,7 @@
         <v>84</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>82</v>
@@ -19990,7 +19939,7 @@
         <v>95</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>107</v>
@@ -20002,10 +19951,10 @@
         <v>84</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>84</v>
@@ -20016,10 +19965,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20045,23 +19994,23 @@
         <v>115</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>84</v>
@@ -20103,7 +20052,7 @@
         <v>84</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>82</v>
@@ -20124,10 +20073,10 @@
         <v>84</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>84</v>
@@ -20138,10 +20087,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>437</v>
@@ -20169,13 +20118,13 @@
         <v>160</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>429</v>
@@ -20227,7 +20176,7 @@
         <v>84</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>82</v>
@@ -20245,7 +20194,7 @@
         <v>84</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>433</v>
@@ -20262,10 +20211,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>439</v>
@@ -20293,13 +20242,13 @@
         <v>440</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>429</v>
@@ -20351,7 +20300,7 @@
         <v>84</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>82</v>
@@ -20369,7 +20318,7 @@
         <v>84</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>433</v>
@@ -20386,10 +20335,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>442</v>
@@ -20411,19 +20360,19 @@
         <v>84</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>444</v>
+        <v>627</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>446</v>
+        <v>628</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>429</v>
@@ -20475,7 +20424,7 @@
         <v>84</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>82</v>
@@ -20484,39 +20433,39 @@
         <v>95</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>84</v>
@@ -20535,19 +20484,19 @@
         <v>84</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>455</v>
+        <v>628</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>429</v>
@@ -20599,7 +20548,7 @@
         <v>84</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>82</v>
@@ -20608,39 +20557,39 @@
         <v>95</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP147" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>84</v>
@@ -20662,16 +20611,16 @@
         <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>429</v>
@@ -20723,7 +20672,7 @@
         <v>84</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>82</v>
@@ -20741,7 +20690,7 @@
         <v>84</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>433</v>
@@ -20758,13 +20707,13 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>84</v>
@@ -20786,16 +20735,16 @@
         <v>96</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>429</v>
@@ -20847,7 +20796,7 @@
         <v>84</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>82</v>
@@ -20865,7 +20814,7 @@
         <v>84</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>433</v>
@@ -20882,13 +20831,13 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>84</v>
@@ -20910,16 +20859,16 @@
         <v>96</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>429</v>
@@ -20971,7 +20920,7 @@
         <v>84</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>82</v>
@@ -20989,7 +20938,7 @@
         <v>84</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>433</v>
@@ -21006,13 +20955,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>84</v>
@@ -21034,16 +20983,16 @@
         <v>96</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>429</v>
@@ -21075,7 +21024,7 @@
       </c>
       <c r="Y151" s="2"/>
       <c r="Z151" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>84</v>
@@ -21093,7 +21042,7 @@
         <v>84</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -21111,7 +21060,7 @@
         <v>84</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>433</v>
@@ -21128,10 +21077,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21157,16 +21106,16 @@
         <v>284</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>84</v>
@@ -21194,10 +21143,10 @@
         <v>344</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>84</v>
@@ -21215,7 +21164,7 @@
         <v>84</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -21224,7 +21173,7 @@
         <v>95</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>107</v>
@@ -21239,7 +21188,7 @@
         <v>138</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>84</v>
@@ -21250,14 +21199,14 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21279,16 +21228,16 @@
         <v>284</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>84</v>
@@ -21316,10 +21265,10 @@
         <v>344</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>84</v>
@@ -21337,7 +21286,7 @@
         <v>84</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>82</v>
@@ -21355,27 +21304,27 @@
         <v>84</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP153" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21398,19 +21347,19 @@
         <v>84</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>84</v>
@@ -21459,7 +21408,7 @@
         <v>84</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>82</v>
@@ -21480,10 +21429,10 @@
         <v>84</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>84</v>
@@ -21494,13 +21443,13 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>84</v>
@@ -21522,19 +21471,19 @@
         <v>96</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>84</v>
@@ -21583,7 +21532,7 @@
         <v>84</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>82</v>
@@ -21604,10 +21553,10 @@
         <v>84</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>84</v>
@@ -21618,10 +21567,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21736,10 +21685,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21852,10 +21801,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>229</v>
@@ -21946,7 +21895,7 @@
         <v>83</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>146</v>
@@ -21972,10 +21921,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22090,10 +22039,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22208,10 +22157,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22328,10 +22277,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22446,14 +22395,14 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22475,10 +22424,10 @@
         <v>140</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>170</v>
@@ -22533,7 +22482,7 @@
         <v>84</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>82</v>
@@ -22568,10 +22517,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22597,13 +22546,13 @@
         <v>284</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>314</v>
@@ -22616,7 +22565,7 @@
         <v>84</v>
       </c>
       <c r="S164" t="s" s="2">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>84</v>
@@ -22631,13 +22580,13 @@
         <v>84</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>84</v>
@@ -22655,7 +22604,7 @@
         <v>84</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>95</v>
@@ -22673,7 +22622,7 @@
         <v>84</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>318</v>
@@ -22690,10 +22639,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22719,13 +22668,13 @@
         <v>425</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>429</v>
@@ -22772,10 +22721,10 @@
         <v>84</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -22793,7 +22742,7 @@
         <v>84</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>433</v>
@@ -22810,13 +22759,13 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>84</v>
@@ -22835,19 +22784,19 @@
         <v>84</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>472</v>
+        <v>628</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>429</v>
@@ -22899,7 +22848,7 @@
         <v>84</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>82</v>
@@ -22908,36 +22857,36 @@
         <v>95</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP166" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23052,10 +23001,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23172,13 +23121,13 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>84</v>
@@ -23200,16 +23149,16 @@
         <v>84</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -23283,7 +23232,7 @@
         <v>84</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>84</v>
@@ -23294,13 +23243,13 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>84</v>
@@ -23322,16 +23271,16 @@
         <v>84</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -23405,7 +23354,7 @@
         <v>84</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>84</v>
@@ -23416,10 +23365,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23442,19 +23391,19 @@
         <v>96</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>84</v>
@@ -23503,7 +23452,7 @@
         <v>84</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>82</v>
@@ -23524,10 +23473,10 @@
         <v>84</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>84</v>
@@ -23538,10 +23487,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23567,20 +23516,20 @@
         <v>115</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q172" t="s" s="2">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="R172" t="s" s="2">
         <v>84</v>
@@ -23604,10 +23553,10 @@
         <v>275</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>84</v>
@@ -23625,7 +23574,7 @@
         <v>84</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>82</v>
@@ -23646,10 +23595,10 @@
         <v>84</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>84</v>
@@ -23660,10 +23609,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23689,14 +23638,14 @@
         <v>160</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>84</v>
@@ -23745,7 +23694,7 @@
         <v>84</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>82</v>
@@ -23766,10 +23715,10 @@
         <v>84</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>84</v>
@@ -23780,10 +23729,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23809,21 +23758,21 @@
         <v>109</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>84</v>
@@ -23865,7 +23814,7 @@
         <v>84</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>82</v>
@@ -23874,7 +23823,7 @@
         <v>95</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>107</v>
@@ -23886,10 +23835,10 @@
         <v>84</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>84</v>
@@ -23900,10 +23849,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23929,23 +23878,23 @@
         <v>115</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>84</v>
@@ -23987,7 +23936,7 @@
         <v>84</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>82</v>
@@ -24008,10 +23957,10 @@
         <v>84</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>84</v>
@@ -24022,10 +23971,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>437</v>
@@ -24053,13 +24002,13 @@
         <v>160</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>429</v>
@@ -24111,7 +24060,7 @@
         <v>84</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>82</v>
@@ -24129,7 +24078,7 @@
         <v>84</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>433</v>
@@ -24146,10 +24095,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>439</v>
@@ -24177,13 +24126,13 @@
         <v>440</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>429</v>
@@ -24235,7 +24184,7 @@
         <v>84</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>82</v>
@@ -24253,7 +24202,7 @@
         <v>84</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>433</v>
@@ -24270,10 +24219,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>442</v>
@@ -24295,19 +24244,19 @@
         <v>84</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>444</v>
+        <v>627</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>446</v>
+        <v>628</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>429</v>
@@ -24359,7 +24308,7 @@
         <v>84</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>82</v>
@@ -24368,39 +24317,39 @@
         <v>95</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP178" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>84</v>
@@ -24419,19 +24368,19 @@
         <v>84</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>455</v>
+        <v>628</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>429</v>
@@ -24483,7 +24432,7 @@
         <v>84</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>82</v>
@@ -24492,39 +24441,39 @@
         <v>95</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP179" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>84</v>
@@ -24546,16 +24495,16 @@
         <v>96</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M180" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>429</v>
@@ -24607,7 +24556,7 @@
         <v>84</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>82</v>
@@ -24625,7 +24574,7 @@
         <v>84</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>433</v>
@@ -24642,13 +24591,13 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>84</v>
@@ -24670,16 +24619,16 @@
         <v>96</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M181" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>429</v>
@@ -24731,7 +24680,7 @@
         <v>84</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>82</v>
@@ -24749,7 +24698,7 @@
         <v>84</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>433</v>
@@ -24766,13 +24715,13 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>84</v>
@@ -24794,16 +24743,16 @@
         <v>96</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>429</v>
@@ -24855,7 +24804,7 @@
         <v>84</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>82</v>
@@ -24873,7 +24822,7 @@
         <v>84</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>433</v>
@@ -24890,13 +24839,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>84</v>
@@ -24918,16 +24867,16 @@
         <v>96</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>429</v>
@@ -24959,7 +24908,7 @@
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>84</v>
@@ -24977,7 +24926,7 @@
         <v>84</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>82</v>
@@ -24995,7 +24944,7 @@
         <v>84</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>433</v>
@@ -25012,10 +24961,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25041,16 +24990,16 @@
         <v>284</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>84</v>
@@ -25078,10 +25027,10 @@
         <v>344</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>84</v>
@@ -25099,7 +25048,7 @@
         <v>84</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>82</v>
@@ -25108,7 +25057,7 @@
         <v>95</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>107</v>
@@ -25123,7 +25072,7 @@
         <v>138</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>84</v>
@@ -25134,14 +25083,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25163,16 +25112,16 @@
         <v>284</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>84</v>
@@ -25200,10 +25149,10 @@
         <v>344</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>84</v>
@@ -25221,7 +25170,7 @@
         <v>84</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>82</v>
@@ -25239,27 +25188,27 @@
         <v>84</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP185" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25282,19 +25231,19 @@
         <v>84</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>84</v>
@@ -25343,7 +25292,7 @@
         <v>84</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>82</v>
@@ -25364,10 +25313,10 @@
         <v>84</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-mdrd.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-mdrd.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,7 +392,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -818,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1120,7 +1120,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1165,7 +1165,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1513,7 +1513,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1545,7 +1545,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1604,7 +1604,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1683,7 +1683,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1763,7 +1763,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1813,7 +1813,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1846,7 +1846,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1905,7 +1905,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2006,7 +2006,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2151,7 +2151,7 @@
     <t>uncertainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-uncertainty}
+    <t xml:space="preserve">Extension {iso21090-uncertainty|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -2173,7 +2173,7 @@
     <t>uncertaintyType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-uncertaintyType}
+    <t xml:space="preserve">Extension {iso21090-uncertaintyType|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -17557,7 +17557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>647</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>662</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>682</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>703</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>711</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>720</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>740</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>755</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>760</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>762</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>763</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>764</v>
       </c>
@@ -25327,12 +25327,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP186">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
